--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_422__Reeval_Halton_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_422__Reeval_Halton_Modell_1.1.xlsx
@@ -5993,85 +5993,85 @@
                   <c:v>48.11952972412109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.031599998474121</c:v>
+                  <c:v>4.031604766845703</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>43.6324462890625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.85981750488281</c:v>
+                  <c:v>56.85980987548828</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.566215753555298</c:v>
+                  <c:v>3.56622052192688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.34163284301758</c:v>
+                  <c:v>25.34160423278809</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.313649654388428</c:v>
+                  <c:v>4.313659191131592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.772825479507446</c:v>
+                  <c:v>3.772820711135864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.85603141784668</c:v>
+                  <c:v>27.85602760314941</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56.86981201171875</c:v>
+                  <c:v>56.86980438232422</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.196020126342773</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.819307565689087</c:v>
+                  <c:v>3.819297552108765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.63794708251953</c:v>
+                  <c:v>55.6379508972168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.15289688110352</c:v>
+                  <c:v>48.15287780761719</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3.526437997817993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.137431621551514</c:v>
+                  <c:v>4.137441635131836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.29348754882812</c:v>
+                  <c:v>47.29350280761719</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.337823390960693</c:v>
+                  <c:v>4.337818622589111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.712905883789062</c:v>
+                  <c:v>3.712910890579224</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.90222549438477</c:v>
+                  <c:v>46.9022216796875</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.220300167798996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.07785797119141</c:v>
+                  <c:v>53.07783889770508</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>6.221250534057617</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.900503396987915</c:v>
+                  <c:v>3.900493621826172</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.802348136901855</c:v>
+                  <c:v>4.802338600158691</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>53.13654327392578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.36163711547852</c:v>
+                  <c:v>39.36164855957031</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.248788833618164</c:v>
+                  <c:v>4.248798847198486</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.644391298294067</c:v>
@@ -6083,22 +6083,22 @@
                   <c:v>48.44284820556641</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.996237516403198</c:v>
+                  <c:v>3.996232509613037</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.178289890289307</c:v>
+                  <c:v>4.178295135498047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.049364566802979</c:v>
+                  <c:v>4.049369335174561</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.555646181106567</c:v>
+                  <c:v>3.555660963058472</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.400267601013184</c:v>
+                  <c:v>4.40025806427002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.746117115020752</c:v>
+                  <c:v>-1.746119022369385</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3.770133972167969</c:v>
@@ -6107,28 +6107,28 @@
                   <c:v>48.43973541259766</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22.16265106201172</c:v>
+                  <c:v>22.16264915466309</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.746117115020752</c:v>
+                  <c:v>-1.746119022369385</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.093940734863281</c:v>
+                  <c:v>4.093935966491699</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.18004846572876</c:v>
+                  <c:v>4.18004322052002</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.489223957061768</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35.30165100097656</c:v>
+                  <c:v>35.30164337158203</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.211466789245605</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.272443771362305</c:v>
+                  <c:v>9.272436141967773</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>21.62576103210449</c:v>
@@ -6137,112 +6137,112 @@
                   <c:v>56.91508483886719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.323383808135986</c:v>
+                  <c:v>4.323398590087891</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36.70415878295898</c:v>
+                  <c:v>36.70416259765625</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>47.40832138061523</c:v>
+                  <c:v>47.40833282470703</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3.704723358154297</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>40.97397232055664</c:v>
+                  <c:v>40.97396850585938</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.6427558064460754</c:v>
+                  <c:v>0.642760694026947</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>48.44284057617188</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.80891489982605</c:v>
+                  <c:v>3.808919668197632</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.11174488067627</c:v>
+                  <c:v>4.111734867095947</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43.79257965087891</c:v>
+                  <c:v>43.79257202148438</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.296037197113037</c:v>
+                  <c:v>4.296022415161133</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.437216758728027</c:v>
+                  <c:v>4.437211513519287</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.633158683776855</c:v>
+                  <c:v>3.633153915405273</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.11846542358398</c:v>
+                  <c:v>21.11848068237305</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>46.63707733154297</c:v>
+                  <c:v>46.63708877563477</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.215498924255371</c:v>
+                  <c:v>4.215508937835693</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>52.18857192993164</c:v>
+                  <c:v>52.18858337402344</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.85209274291992</c:v>
+                  <c:v>19.85210418701172</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.43546295166016</c:v>
+                  <c:v>48.43546676635742</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>36.78773498535156</c:v>
+                  <c:v>36.78775024414062</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>52.152587890625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>47.04377365112305</c:v>
+                  <c:v>47.04376602172852</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>55.58125305175781</c:v>
+                  <c:v>55.58124923706055</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>56.28671264648438</c:v>
+                  <c:v>56.28670501708984</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48.1452751159668</c:v>
+                  <c:v>48.14528274536133</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.566200971603394</c:v>
+                  <c:v>2.566205978393555</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>37.12897491455078</c:v>
+                  <c:v>37.12896728515625</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>21.90427589416504</c:v>
+                  <c:v>21.90428352355957</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.69674968719482</c:v>
+                  <c:v>11.69674682617188</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>40.54081726074219</c:v>
+                  <c:v>40.54080963134766</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.05607122182846069</c:v>
+                  <c:v>0.05607367679476738</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.91183471679688</c:v>
+                  <c:v>56.91184234619141</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.275649547576904</c:v>
+                  <c:v>4.275639533996582</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>44.96762084960938</c:v>
+                  <c:v>44.96763229370117</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3.807028770446777</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>18.9081974029541</c:v>
+                  <c:v>18.90817260742188</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>3.576210498809814</c:v>
@@ -6251,16 +6251,16 @@
                   <c:v>48.44034576416016</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.364890575408936</c:v>
+                  <c:v>4.36490535736084</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.390955448150635</c:v>
+                  <c:v>4.390960693359375</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3.691079378128052</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.080999374389648</c:v>
+                  <c:v>4.081008911132812</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>55.14247894287109</c:v>
@@ -6269,22 +6269,22 @@
                   <c:v>3.538421869277954</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.970010280609131</c:v>
+                  <c:v>3.97000527381897</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.4361686706543</c:v>
+                  <c:v>48.43618011474609</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>54.43442535400391</c:v>
+                  <c:v>54.43442153930664</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48.43900299072266</c:v>
+                  <c:v>48.43900680541992</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>35.2412109375</c:v>
+                  <c:v>35.24120330810547</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.124465465545654</c:v>
+                  <c:v>4.124460697174072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.031599998474121</v>
+        <v>4.031604766845703</v>
       </c>
       <c r="G4">
         <v>83</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>56.85981750488281</v>
+        <v>56.85980987548828</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.566215753555298</v>
+        <v>3.56622052192688</v>
       </c>
       <c r="G7">
         <v>83</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.34163284301758</v>
+        <v>25.34160423278809</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.313649654388428</v>
+        <v>4.313659191131592</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.772825479507446</v>
+        <v>3.772820711135864</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.85603141784668</v>
+        <v>27.85602760314941</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>51.4297</v>
       </c>
       <c r="F12">
-        <v>56.86981201171875</v>
+        <v>56.86980438232422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.819307565689087</v>
+        <v>3.819297552108765</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>48.3736</v>
       </c>
       <c r="F15">
-        <v>55.63794708251953</v>
+        <v>55.6379508972168</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>41.5994</v>
       </c>
       <c r="F16">
-        <v>48.15289688110352</v>
+        <v>48.15287780761719</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.137431621551514</v>
+        <v>4.137441635131836</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>43.6125</v>
       </c>
       <c r="F19">
-        <v>47.29348754882812</v>
+        <v>47.29350280761719</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.337823390960693</v>
+        <v>4.337818622589111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.712905883789062</v>
+        <v>3.712910890579224</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>29.7064</v>
       </c>
       <c r="F22">
-        <v>46.90222549438477</v>
+        <v>46.9022216796875</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>37.4762</v>
       </c>
       <c r="F24">
-        <v>53.07785797119141</v>
+        <v>53.07783889770508</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3.900503396987915</v>
+        <v>3.900493621826172</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>4.802348136901855</v>
+        <v>4.802338600158691</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>53.1601</v>
       </c>
       <c r="F29">
-        <v>39.36163711547852</v>
+        <v>39.36164855957031</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>43.8987</v>
       </c>
       <c r="F30">
-        <v>4.248788833618164</v>
+        <v>4.248798847198486</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3.996237516403198</v>
+        <v>3.996232509613037</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>4.178289890289307</v>
+        <v>4.178295135498047</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4.049364566802979</v>
+        <v>4.049369335174561</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3.555646181106567</v>
+        <v>3.555660963058472</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4.400267601013184</v>
+        <v>4.40025806427002</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-1.746117115020752</v>
+        <v>-1.746119022369385</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>33.8124</v>
       </c>
       <c r="F42">
-        <v>22.16265106201172</v>
+        <v>22.16264915466309</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>43.2953</v>
       </c>
       <c r="F43">
-        <v>-1.746117115020752</v>
+        <v>-1.746119022369385</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>4.093940734863281</v>
+        <v>4.093935966491699</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>4.18004846572876</v>
+        <v>4.18004322052002</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>41.7163</v>
       </c>
       <c r="F47">
-        <v>35.30165100097656</v>
+        <v>35.30164337158203</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>9.272443771362305</v>
+        <v>9.272436141967773</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>4.323383808135986</v>
+        <v>4.323398590087891</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>45.5896</v>
       </c>
       <c r="F53">
-        <v>36.70415878295898</v>
+        <v>36.70416259765625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>57.1504</v>
       </c>
       <c r="F54">
-        <v>47.40832138061523</v>
+        <v>47.40833282470703</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>48.3275</v>
       </c>
       <c r="F56">
-        <v>40.97397232055664</v>
+        <v>40.97396850585938</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.6427558064460754</v>
+        <v>0.642760694026947</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>3.80891489982605</v>
+        <v>3.808919668197632</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>4.11174488067627</v>
+        <v>4.111734867095947</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>46.8311</v>
       </c>
       <c r="F61">
-        <v>43.79257965087891</v>
+        <v>43.79257202148438</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>4.296037197113037</v>
+        <v>4.296022415161133</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4.437216758728027</v>
+        <v>4.437211513519287</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>3.633158683776855</v>
+        <v>3.633153915405273</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>50.5748</v>
       </c>
       <c r="F65">
-        <v>21.11846542358398</v>
+        <v>21.11848068237305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>41.9705</v>
       </c>
       <c r="F66">
-        <v>46.63707733154297</v>
+        <v>46.63708877563477</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>4.215498924255371</v>
+        <v>4.215508937835693</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>45.5274</v>
       </c>
       <c r="F68">
-        <v>52.18857192993164</v>
+        <v>52.18858337402344</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>49.3915</v>
       </c>
       <c r="F69">
-        <v>19.85209274291992</v>
+        <v>19.85210418701172</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>46.1004</v>
       </c>
       <c r="F70">
-        <v>48.43546295166016</v>
+        <v>48.43546676635742</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>41.7128</v>
       </c>
       <c r="F71">
-        <v>36.78773498535156</v>
+        <v>36.78775024414062</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>48.0588</v>
       </c>
       <c r="F73">
-        <v>47.04377365112305</v>
+        <v>47.04376602172852</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>51.5206</v>
       </c>
       <c r="F74">
-        <v>55.58125305175781</v>
+        <v>55.58124923706055</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>30.9889</v>
       </c>
       <c r="F75">
-        <v>56.28671264648438</v>
+        <v>56.28670501708984</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>43.1068</v>
       </c>
       <c r="F76">
-        <v>48.1452751159668</v>
+        <v>48.14528274536133</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>2.566200971603394</v>
+        <v>2.566205978393555</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>31.3181</v>
       </c>
       <c r="F78">
-        <v>37.12897491455078</v>
+        <v>37.12896728515625</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>46.1463</v>
       </c>
       <c r="F79">
-        <v>21.90427589416504</v>
+        <v>21.90428352355957</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>38.3322</v>
       </c>
       <c r="F80">
-        <v>11.69674968719482</v>
+        <v>11.69674682617188</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>40.54081726074219</v>
+        <v>40.54080963134766</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>36.6463</v>
       </c>
       <c r="F82">
-        <v>0.05607122182846069</v>
+        <v>0.05607367679476738</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>55.7741</v>
       </c>
       <c r="F83">
-        <v>56.91183471679688</v>
+        <v>56.91184234619141</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>4.275649547576904</v>
+        <v>4.275639533996582</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>26.5272</v>
       </c>
       <c r="F85">
-        <v>44.96762084960938</v>
+        <v>44.96763229370117</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>49.6522</v>
       </c>
       <c r="F87">
-        <v>18.9081974029541</v>
+        <v>18.90817260742188</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>4.364890575408936</v>
+        <v>4.36490535736084</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>4.390955448150635</v>
+        <v>4.390960693359375</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4.080999374389648</v>
+        <v>4.081008911132812</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3.970010280609131</v>
+        <v>3.97000527381897</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>46.3967</v>
       </c>
       <c r="F97">
-        <v>48.4361686706543</v>
+        <v>48.43618011474609</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>54.43442535400391</v>
+        <v>54.43442153930664</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>45.4271</v>
       </c>
       <c r="F99">
-        <v>48.43900299072266</v>
+        <v>48.43900680541992</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>38.2511</v>
       </c>
       <c r="F100">
-        <v>35.2412109375</v>
+        <v>35.24120330810547</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>4.124465465545654</v>
+        <v>4.124460697174072</v>
       </c>
     </row>
     <row r="102" spans="1:6">
